--- a/AAII_Financials/Yearly/TCAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/TCAC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>TCAC</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -714,23 +714,23 @@
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -859,8 +859,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>900</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -886,26 +886,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,8 +923,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>2900</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>3</v>
@@ -1017,26 +1017,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1044,26 +1044,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3"/>
     </row>
@@ -1071,8 +1071,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>7700</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>3</v>
@@ -1098,26 +1098,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,8 +1152,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>7700</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>3</v>
@@ -1179,8 +1179,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>7700</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>3</v>
@@ -1233,26 +1233,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3"/>
     </row>
@@ -1341,8 +1341,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>7700</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>3</v>
@@ -1395,8 +1395,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>7700</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>3</v>
@@ -2384,25 +2384,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3">
-        <v>0</v>
+        <v>182800</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,8 +2469,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>7700</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>3</v>
